--- a/UrlsAndOtherDetails.xlsx
+++ b/UrlsAndOtherDetails.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FC2E6-8964-4565-9E6D-377AE3DECF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object Repo" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,6 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="223">
   <si>
     <t>S.no</t>
   </si>
@@ -631,12 +631,72 @@
   </si>
   <si>
     <t>Bright@123</t>
+  </si>
+  <si>
+    <t>//div[@class='x-panel-tbar']/following::div[contains(@class,'row') and not(contains(@class,'checker'))]</t>
+  </si>
+  <si>
+    <t>Centers Lab Claim Search Results</t>
+  </si>
+  <si>
+    <t>//a[span[contains(text(),'Billing edit')]]</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Edit Option</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Enitities</t>
+  </si>
+  <si>
+    <t>//div[div[span[contains(text(),'Transactions:')]]]//div[@class='x-grid3-scroller']/div</t>
+  </si>
+  <si>
+    <t>//button[text()='Close']</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Edit Close Button</t>
+  </si>
+  <si>
+    <t>//div[text()='Write off']</t>
+  </si>
+  <si>
+    <t>Centers Lab WriteOff Element</t>
+  </si>
+  <si>
+    <t>//label[text()='Tags:']/following::li/input</t>
+  </si>
+  <si>
+    <t>Centers Lab Tag Input</t>
+  </si>
+  <si>
+    <t>//input[@name='group_by_service']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centers Lab GroupBy Service </t>
+  </si>
+  <si>
+    <t>//button[(text())='OK']</t>
+  </si>
+  <si>
+    <t>Centers Lab Ok Button</t>
+  </si>
+  <si>
+    <t>//div[text()='Close']</t>
+  </si>
+  <si>
+    <t>Centers Lab Claim Close Button</t>
+  </si>
+  <si>
+    <t>//div[@class='x-panel-tbar']/following::div[contains(@class,'row-selected') and not(contains(@class,'checker'))]</t>
+  </si>
+  <si>
+    <t>Centers Lab Selected Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,21 +1063,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1033,7 +1093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1041,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1049,7 +1109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1063,23 +1123,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="62.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -1107,7 +1167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1121,7 +1181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -1135,7 +1195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -1149,7 +1209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -1163,7 +1223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -1177,7 +1237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -1191,7 +1251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -1205,7 +1265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -1219,7 +1279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -1247,7 +1307,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -1261,7 +1321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
@@ -1275,7 +1335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -1289,7 +1349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1303,7 +1363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -1317,7 +1377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -1331,7 +1391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1359,7 +1419,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -1373,7 +1433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1387,7 +1447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -1401,7 +1461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -1415,7 +1475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -1429,7 +1489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -1443,7 +1503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -1457,7 +1517,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
@@ -1471,7 +1531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
@@ -1485,7 +1545,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1541,7 +1601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1569,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +1657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1611,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1625,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1681,7 +1741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -1723,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -1751,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1779,7 +1839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +1853,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -1821,7 +1881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>42</v>
       </c>
@@ -1849,7 +1909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +1923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -1877,7 +1937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
@@ -1891,7 +1951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,7 +1965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +2007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -1961,7 +2021,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,7 +2035,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -1989,7 +2049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
@@ -2003,7 +2063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>157</v>
       </c>
@@ -2015,7 +2075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -2029,7 +2089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>157</v>
       </c>
@@ -2043,7 +2103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>157</v>
       </c>
@@ -2057,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>157</v>
       </c>
@@ -2071,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -2085,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>157</v>
       </c>
@@ -2099,7 +2159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>157</v>
       </c>
@@ -2113,7 +2173,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>157</v>
       </c>
@@ -2127,7 +2187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -2141,7 +2201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -2155,7 +2215,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>157</v>
       </c>
@@ -2169,7 +2229,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -2183,7 +2243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
@@ -2197,7 +2257,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>157</v>
       </c>
@@ -2211,7 +2271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
@@ -2225,7 +2285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
@@ -2239,7 +2299,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -2253,7 +2313,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>157</v>
       </c>
@@ -2267,7 +2327,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>157</v>
       </c>
@@ -2281,7 +2341,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>157</v>
       </c>
@@ -2295,7 +2355,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>157</v>
       </c>
@@ -2309,7 +2369,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -2323,28 +2383,169 @@
         <v>198</v>
       </c>
     </row>
+    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2355,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -2366,7 +2567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -2377,7 +2578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -2388,7 +2589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2421,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2432,7 +2633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2454,7 +2655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>157</v>
       </c>
@@ -2465,7 +2666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>157</v>
       </c>
@@ -2476,7 +2677,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>157</v>
       </c>
@@ -2489,11 +2690,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
-    <hyperlink ref="C12" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UrlsAndOtherDetails.xlsx
+++ b/UrlsAndOtherDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FC2E6-8964-4565-9E6D-377AE3DECF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44718F-4B91-4904-B34B-348CB8061262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
   <si>
     <t>S.no</t>
   </si>
@@ -627,12 +627,6 @@
     <t>https://centerslabs.emsow.com/</t>
   </si>
   <si>
-    <t>dsamraj</t>
-  </si>
-  <si>
-    <t>Bright@123</t>
-  </si>
-  <si>
     <t>//div[@class='x-panel-tbar']/following::div[contains(@class,'row') and not(contains(@class,'checker'))]</t>
   </si>
   <si>
@@ -691,6 +685,60 @@
   </si>
   <si>
     <t>Centers Lab Selected Result</t>
+  </si>
+  <si>
+    <t>CentersLab Linkto</t>
+  </si>
+  <si>
+    <t>//div[input[@name='service_note_link_to']]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[@class='x-window-mc']/div/div[2]/div[6]/div[1]</t>
+  </si>
+  <si>
+    <t>CentersLab Notes Popup</t>
+  </si>
+  <si>
+    <t>//button[text()='Operations']</t>
+  </si>
+  <si>
+    <t>//span[text()='Write off amount']</t>
+  </si>
+  <si>
+    <t>Centers Lab WriteOff Option</t>
+  </si>
+  <si>
+    <t>Centers Lab Operations Option</t>
+  </si>
+  <si>
+    <t>//span[text()='Billing edit']</t>
+  </si>
+  <si>
+    <t>Centers Billing Edit</t>
+  </si>
+  <si>
+    <t>Centers Comment Add Button</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Bright@978</t>
+  </si>
+  <si>
+    <t>//textarea[@name='service_note_text']</t>
+  </si>
+  <si>
+    <t>Centers Lab Comment Area</t>
+  </si>
+  <si>
+    <t>//button[text()='Save']</t>
+  </si>
+  <si>
+    <t>Centers Lab Save Button</t>
+  </si>
+  <si>
+    <t>Centers Lab Close Button</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,13 +2436,13 @@
         <v>157</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2402,13 +2450,13 @@
         <v>157</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2416,13 +2464,13 @@
         <v>157</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2430,13 +2478,13 @@
         <v>157</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2444,13 +2492,13 @@
         <v>157</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2458,13 +2506,13 @@
         <v>157</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2472,13 +2520,13 @@
         <v>157</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,13 +2534,13 @@
         <v>157</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2500,13 +2548,13 @@
         <v>157</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2514,13 +2562,139 @@
         <v>157</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>221</v>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2708,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,7 +2837,7 @@
         <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2674,7 +2848,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,7 +2868,7 @@
     <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId5" display="Bright@123" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UrlsAndOtherDetails.xlsx
+++ b/UrlsAndOtherDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44718F-4B91-4904-B34B-348CB8061262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AA150-5F1D-46CE-87E1-C4E5E7D633C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="254">
   <si>
     <t>S.no</t>
   </si>
@@ -739,6 +739,51 @@
   </si>
   <si>
     <t>Centers Lab Close Button</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Amazon Username</t>
+  </si>
+  <si>
+    <t>Amazon Password</t>
+  </si>
+  <si>
+    <t>Amazon URL</t>
+  </si>
+  <si>
+    <t>31Nissan</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ap/signin?openid.pape.max_auth_age=1209600&amp;openid.return_to=https%3A%2F%2Fread.amazon.com%2Fkindle-library&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=amzn_kindle_mykindle_us&amp;openid.mode=checkid_setup&amp;language=en_US&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;pageId=amzn_kindle_mykindle_us&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>8455877441</t>
+  </si>
+  <si>
+    <t>//div[@class='x-panel-tbar']/following::div[contains(@class,'row') and not(contains(@class,'checker'))]/table//td[contains(@class,'study')]//tr[3]//a</t>
+  </si>
+  <si>
+    <t>Centers Lab Dignosis Link</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'resizable-pinned')]//button[text()='Save']</t>
+  </si>
+  <si>
+    <t>Centers Lab Diagnosis Save Button</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'resizable-pinned')]/div[2]//ul/li/input</t>
+  </si>
+  <si>
+    <t>Centers Lab Diagnosis input</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'resizable-pinned')]/div[2]//ul/li/span</t>
+  </si>
+  <si>
+    <t>Centers Lab Available Dx</t>
   </si>
 </sst>
 </file>
@@ -797,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -829,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,6 +1213,14 @@
         <v>157</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1172,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,6 +2753,62 @@
         <v>207</v>
       </c>
     </row>
+    <row r="109" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2705,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D16" sqref="D16:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2862,6 +2974,39 @@
         <v>200</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -2869,6 +3014,7 @@
     <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="C12" r:id="rId5" display="Bright@123" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C16" r:id="rId6" display="https://www.amazon.com/ap/signin?openid.pape.max_auth_age=1209600&amp;openid.return_to=https%3A%2F%2Fread.amazon.com%2Fkindle-library&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=amzn_kindle_mykindle_us&amp;openid.mode=checkid_setup&amp;language=en_US&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;pageId=amzn_kindle_mykindle_us&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0" xr:uid="{2028DB13-44E8-4400-8851-B888C33BE65E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UrlsAndOtherDetails.xlsx
+++ b/UrlsAndOtherDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AA150-5F1D-46CE-87E1-C4E5E7D633C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB79FEA-15F8-445B-B9AD-9F36CC6DD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="269">
   <si>
     <t>S.no</t>
   </si>
@@ -720,12 +720,6 @@
     <t>Centers Comment Add Button</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Bright@978</t>
-  </si>
-  <si>
     <t>//textarea[@name='service_note_text']</t>
   </si>
   <si>
@@ -784,6 +778,57 @@
   </si>
   <si>
     <t>Centers Lab Available Dx</t>
+  </si>
+  <si>
+    <t>//div[@class='x-panel-mc']/div[2]//table//td/div/div[1]</t>
+  </si>
+  <si>
+    <t>Centers Lab CheckAll CheckBox</t>
+  </si>
+  <si>
+    <t>//div[@class='x-panel-tbar']/following::div[contains(@class,'x-grid3-row') and not(contains(@class,'checker'))]</t>
+  </si>
+  <si>
+    <t>Centers Lab All checked and non checked Results</t>
+  </si>
+  <si>
+    <t>dsamraj</t>
+  </si>
+  <si>
+    <t>Bright@123</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Service edit')]//parent::a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centers Lab Service Edit Open </t>
+  </si>
+  <si>
+    <t>//span[text()='Studies']/ancestor::fieldset//button[normalize-space(text())='Add study']</t>
+  </si>
+  <si>
+    <t>Centers Lab Add Study</t>
+  </si>
+  <si>
+    <t>//span[text()='Studies']/ancestor::fieldset//div[@class='app-multifield-body']/div[@class='app-multifield-row']</t>
+  </si>
+  <si>
+    <t>Centers lab Number of studies</t>
+  </si>
+  <si>
+    <t>//span[text()='Studies']/ancestor::fieldset//div[@class='app-multifield-body']/div[@class='app-multifield-row'][4]/div[3]//input</t>
+  </si>
+  <si>
+    <t>Centers Lab Study Box</t>
+  </si>
+  <si>
+    <t>Centers Lab Diagnosis Box</t>
+  </si>
+  <si>
+    <t>//span[text()='Studies']/ancestor::fieldset//div[@class='app-multifield-body']/div[@class='app-multifield-row'][4]/div[7]/div/div//input</t>
+  </si>
+  <si>
+    <t>Centers Lab Service Save Button</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1228,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,13 +2761,13 @@
         <v>157</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2730,13 +2775,13 @@
         <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2744,7 +2789,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
@@ -2758,13 +2803,13 @@
         <v>157</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2772,13 +2817,13 @@
         <v>157</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,13 +2831,13 @@
         <v>157</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,13 +2845,125 @@
         <v>157</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2977,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:AD16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,7 +3106,7 @@
         <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2960,7 +3117,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2976,35 +3133,35 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3170,7 @@
     <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C12" r:id="rId5" display="Bright@123" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C16" r:id="rId6" display="https://www.amazon.com/ap/signin?openid.pape.max_auth_age=1209600&amp;openid.return_to=https%3A%2F%2Fread.amazon.com%2Fkindle-library&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=amzn_kindle_mykindle_us&amp;openid.mode=checkid_setup&amp;language=en_US&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;pageId=amzn_kindle_mykindle_us&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0" xr:uid="{2028DB13-44E8-4400-8851-B888C33BE65E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UrlsAndOtherDetails.xlsx
+++ b/UrlsAndOtherDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\git\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47682AC2-3BCA-41E9-9304-3C2092DAF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B240CE-6281-4216-B353-98DE9255B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object Repo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="273">
   <si>
     <t>S.no</t>
   </si>
@@ -831,6 +831,21 @@
   </si>
   <si>
     <t>Mazel672@</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Edit</t>
+  </si>
+  <si>
+    <t>//div[normalize-space(text())='Electronic claim for Primary Insurance (']</t>
+  </si>
+  <si>
+    <t>Centers Lab Not Submitted</t>
+  </si>
+  <si>
+    <t>//div[@qtip='Put on hold']/div</t>
+  </si>
+  <si>
+    <t>Centers Lab lock</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835295EA-DAE6-4506-8FA7-0659BAFE5F77}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,13 +2483,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2482,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,27 +2511,27 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2524,13 +2539,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2538,13 +2553,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2552,13 +2567,13 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2566,13 +2581,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2580,69 +2595,69 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="3" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2650,27 +2665,27 @@
         <v>5</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2678,27 +2693,27 @@
         <v>5</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2706,55 +2721,55 @@
         <v>5</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="3" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="3" t="s">
+    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2762,13 +2777,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2776,55 +2791,55 @@
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="3" t="s">
+    <row r="110" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,27 +2847,27 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2860,13 +2875,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2874,13 +2889,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2888,13 +2903,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2902,13 +2917,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2916,13 +2931,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2930,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2944,13 +2959,55 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A774AB-8702-415F-A48E-241F74C87AEE}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
